--- a/团队工作跟踪.xlsx
+++ b/团队工作跟踪.xlsx
@@ -7,7 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="1325 第1周工作" sheetId="1" r:id="rId1"/>
+    <sheet name="0105 第2周工作 " sheetId="3" r:id="rId1"/>
+    <sheet name="1325 第1周工作" sheetId="1" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -18,9 +20,85 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝娜</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 设计V1.0.1版本的样增需求， 提交设计文档初稿； 
+ 2  学习UI 绘图工具；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚坤</t>
+  </si>
+  <si>
+    <t>1 调研腾讯云与阿里云技术，评估选择云服务器方案；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘刚</t>
+  </si>
+  <si>
+    <t>1 查找APP 推广资料， 总结初步推广方案；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 增加微信，QQ分享功能； 
+2  修改UI设计风格； 
+3 增加相机界面直接选择宣言功能； 4  研究远程协作方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 继续学习UI 绘图工具，应用工具设计【设置】界面修改方案（现有界面见演示视频）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 增加欢迎功能引导界面；
+2  美化相机界面；
+3  文档化团队资料； </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 根据推广方案概要，编写详细推广方案， 所需材料向我提需求；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 研究阿里云技术，评估现有条件下的技术可行性，需要哪些条件可合作开发； 
+2  学习阿里云数据库技术；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -36,16 +114,67 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -53,14 +182,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,11 +548,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="74" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="66" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="101" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="57">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="51" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="19">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="76">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>

--- a/团队工作跟踪.xlsx
+++ b/团队工作跟踪.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="3640" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="0105 第2周工作 " sheetId="3" r:id="rId1"/>
     <sheet name="1325 第1周工作" sheetId="1" r:id="rId2"/>
     <sheet name="工作表1" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0105 第2周工作 '!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>成员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +94,80 @@
   <si>
     <t>1 研究阿里云技术，评估现有条件下的技术可行性，需要哪些条件可合作开发； 
 2  学习阿里云数据库技术；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14年1月
+第1周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">13年12月 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 搞了台阿里云机器：
+ip：115.28.36.43
+username:user_00
+password:yaokun
+装了个apache。
+2. 看了下腾讯的开放平台服务，http://open.qq.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习相关方面的东西，了解一下产品设计的知识。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">开发cgi demo跟app前台相关开发； </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究如何的进行推广，准备推广需要的各种资料；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 增加了引导界面； 
+2 试图美化相机 ，但效果不好，删除； 
+3 在github中上传了团队资料，经试用trello，目前并不适用，暂时用邮件电话交流； </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">增加用户反馈功能；
+研究阿里云访问方法； 
+增加用户登录方法； </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,8 +250,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -197,14 +280,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -214,10 +354,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="24">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -548,74 +721,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="3" max="4" width="62.5" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31" customHeight="1">
+    <row r="1" spans="1:5" ht="31" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="74" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="74" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="89" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="101" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="76">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="61" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="66" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="61" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="101" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="59" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="57">
-      <c r="A5" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="86" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
